--- a/Luban/Datas/Scene.xlsx
+++ b/Luban/Datas/Scene.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\YuFramework\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\200 - 学习\202 - 项目\unity\2.5D\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA58A5-30D7-4AE8-899E-012F23FE38DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A015B7AF-52A9-45C0-B1B9-507792367B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -63,11 +52,34 @@
     <t>场景背景音乐</t>
   </si>
   <si>
+    <t>Home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Home.unity</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/SampleScene.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SampleScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/SampleScene.unity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,14 +105,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -127,10 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,17 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="1" max="4" width="40.5546875" customWidth="1"/>
     <col min="5" max="5" width="45.21875" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
@@ -435,7 +436,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -453,7 +456,9 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -471,7 +476,9 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -480,11 +487,22 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Luban/Datas/Scene.xlsx
+++ b/Luban/Datas/Scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\200 - 学习\202 - 项目\unity\2.5D\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A015B7AF-52A9-45C0-B1B9-507792367B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916FCAC1-1E8E-45FB-BAEE-EE5E6A665FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>SampleScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏的第一关，教程关</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -412,14 +420,14 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="40.5546875" customWidth="1"/>
     <col min="5" max="5" width="45.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -439,7 +447,9 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -459,7 +469,9 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -503,6 +515,9 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Luban/Datas/Scene.xlsx
+++ b/Luban/Datas/Scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\200 - 学习\202 - 项目\unity\2.5D\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916FCAC1-1E8E-45FB-BAEE-EE5E6A665FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39AC273-4A3C-428C-8464-17EC89424629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>游戏的第一关，教程关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestLevelScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/TestLevelScene.unity</t>
+  </si>
+  <si>
+    <t>第二关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用的关卡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -519,6 +534,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
